--- a/Code/Results/Cases/Case_0_223/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_223/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.604881059322607</v>
+        <v>2.177054233802296</v>
       </c>
       <c r="D2">
-        <v>2.231851092102846</v>
+        <v>2.94415561582861</v>
       </c>
       <c r="E2">
-        <v>31.24217347962265</v>
+        <v>16.66802848903046</v>
       </c>
       <c r="F2">
-        <v>33.93664512644634</v>
+        <v>24.47134540445481</v>
       </c>
       <c r="G2">
-        <v>1.978787400582406</v>
+        <v>3.567526063762902</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.04517727779043</v>
+        <v>19.59752123846195</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682374</v>
+        <v>18.99769123883711</v>
       </c>
       <c r="O2">
-        <v>27.02694596348239</v>
+        <v>20.89182271100775</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.550045393349118</v>
+        <v>2.172435147857365</v>
       </c>
       <c r="D3">
-        <v>2.124375878529047</v>
+        <v>2.95499900982323</v>
       </c>
       <c r="E3">
-        <v>28.87033717357183</v>
+        <v>15.70626053483035</v>
       </c>
       <c r="F3">
-        <v>31.47630387485409</v>
+        <v>23.77279097030611</v>
       </c>
       <c r="G3">
-        <v>1.989372520803169</v>
+        <v>3.571234858654964</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.21037613844265</v>
+        <v>19.17331663189001</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.22561817997339</v>
+        <v>18.40031508502701</v>
       </c>
       <c r="O3">
-        <v>25.04460434424393</v>
+        <v>20.41879351793042</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.516576709119517</v>
+        <v>2.1699388767347</v>
       </c>
       <c r="D4">
-        <v>2.05800331295127</v>
+        <v>2.962158412889302</v>
       </c>
       <c r="E4">
-        <v>27.35744818873201</v>
+        <v>15.09050342618864</v>
       </c>
       <c r="F4">
-        <v>29.89974647350229</v>
+        <v>23.34195226825164</v>
       </c>
       <c r="G4">
-        <v>1.995994365836871</v>
+        <v>3.573629020972537</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.03269537528137</v>
+        <v>18.91479532521317</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.33595077662917</v>
+        <v>18.02485520896362</v>
       </c>
       <c r="O4">
-        <v>23.77294354068077</v>
+        <v>20.12992364643306</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.502991807846932</v>
+        <v>2.169007673701893</v>
       </c>
       <c r="D5">
-        <v>2.030823845646134</v>
+        <v>2.965201582666245</v>
       </c>
       <c r="E5">
-        <v>26.7260413224701</v>
+        <v>14.8334996344148</v>
       </c>
       <c r="F5">
-        <v>29.24045126131538</v>
+        <v>23.16620146761137</v>
       </c>
       <c r="G5">
-        <v>1.998727053925613</v>
+        <v>3.574634190340252</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>21.53966553640624</v>
+        <v>18.81009776041359</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195408</v>
+        <v>17.86990355188765</v>
       </c>
       <c r="O5">
-        <v>23.24074678007137</v>
+        <v>20.01278767864523</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.500739455072928</v>
+        <v>2.168858261243953</v>
       </c>
       <c r="D6">
-        <v>2.026301824095467</v>
+        <v>2.965714475022706</v>
       </c>
       <c r="E6">
-        <v>26.62027903914446</v>
+        <v>14.79046609958031</v>
       </c>
       <c r="F6">
-        <v>29.12995265558516</v>
+        <v>23.13701640717197</v>
       </c>
       <c r="G6">
-        <v>1.999182975905622</v>
+        <v>3.574802884975969</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>21.45699919430975</v>
+        <v>18.79275700330097</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.90084339962192</v>
+        <v>17.84406337566597</v>
       </c>
       <c r="O6">
-        <v>23.15152393411638</v>
+        <v>19.99337790370629</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.516393273615336</v>
+        <v>2.16992596903508</v>
       </c>
       <c r="D7">
-        <v>2.057637338275081</v>
+        <v>2.96219894600785</v>
       </c>
       <c r="E7">
-        <v>27.34899394515725</v>
+        <v>15.08706160069387</v>
       </c>
       <c r="F7">
-        <v>29.89092345042309</v>
+        <v>23.33958235184754</v>
       </c>
       <c r="G7">
-        <v>1.996031076940788</v>
+        <v>3.573642457318429</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.02609962746221</v>
+        <v>18.91338048007347</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062624</v>
+        <v>18.02277304767603</v>
       </c>
       <c r="O7">
-        <v>23.76582311124395</v>
+        <v>20.12834131072626</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.585933098646263</v>
+        <v>2.175391400923772</v>
       </c>
       <c r="D8">
-        <v>2.194848933027291</v>
+        <v>2.947790048412414</v>
       </c>
       <c r="E8">
-        <v>30.43568125447065</v>
+        <v>16.34179060929392</v>
       </c>
       <c r="F8">
-        <v>33.10181438016053</v>
+        <v>24.23106040309856</v>
       </c>
       <c r="G8">
-        <v>1.982413886964433</v>
+        <v>3.568780657121915</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.42297292766785</v>
+        <v>19.45094988731143</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>18.79364780656867</v>
       </c>
       <c r="O8">
-        <v>26.35456083120602</v>
+        <v>20.72850622303068</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1.723946472477161</v>
+        <v>2.188778008507189</v>
       </c>
       <c r="D9">
-        <v>2.462965688450807</v>
+        <v>2.923534966248327</v>
       </c>
       <c r="E9">
-        <v>36.07429109778032</v>
+        <v>18.73688618351982</v>
       </c>
       <c r="F9">
-        <v>38.89141066579491</v>
+        <v>25.95145186653697</v>
       </c>
       <c r="G9">
-        <v>1.95650762715206</v>
+        <v>3.56016906549611</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>28.73192374578125</v>
+        <v>20.51348828274695</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.34722074380647</v>
+        <v>20.2273683202997</v>
       </c>
       <c r="O9">
-        <v>31.01399700260233</v>
+        <v>21.90996168125022</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1.826812495605549</v>
+        <v>2.200200076093394</v>
       </c>
       <c r="D10">
-        <v>2.663102629872483</v>
+        <v>2.908184729423248</v>
       </c>
       <c r="E10">
-        <v>40.02110751215037</v>
+        <v>20.4190547827733</v>
       </c>
       <c r="F10">
-        <v>42.86425199072831</v>
+        <v>27.18294755802058</v>
       </c>
       <c r="G10">
-        <v>1.937676216505719</v>
+        <v>3.554396683160884</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>31.68268931691469</v>
+        <v>21.29013090498111</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>30.48602834203865</v>
+        <v>21.22223697909767</v>
       </c>
       <c r="O10">
-        <v>34.20870356236942</v>
+        <v>22.77054280716412</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1.874167688813501</v>
+        <v>2.205731232051607</v>
       </c>
       <c r="D11">
-        <v>2.755962690386882</v>
+        <v>2.901745097343441</v>
       </c>
       <c r="E11">
-        <v>41.78997489797428</v>
+        <v>21.14206437904654</v>
       </c>
       <c r="F11">
-        <v>44.61882639419567</v>
+        <v>27.73323559559251</v>
       </c>
       <c r="G11">
-        <v>1.92907566713645</v>
+        <v>3.551889431349226</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>32.98486643156201</v>
+        <v>21.64077404586619</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>31.41016321374476</v>
+        <v>21.66018057919901</v>
       </c>
       <c r="O11">
-        <v>35.61956439884539</v>
+        <v>23.15842820242483</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1.892212832687379</v>
+        <v>2.207873030907942</v>
       </c>
       <c r="D12">
-        <v>2.79151041621832</v>
+        <v>2.89938535145791</v>
       </c>
       <c r="E12">
-        <v>42.45764384921083</v>
+        <v>21.40981913813115</v>
       </c>
       <c r="F12">
-        <v>45.27651139029818</v>
+        <v>27.93997367935093</v>
       </c>
       <c r="G12">
-        <v>1.925806061107578</v>
+        <v>3.5509569310822</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>33.47285387846207</v>
+        <v>21.77303194831448</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>31.75299711977163</v>
+        <v>21.82377585682186</v>
       </c>
       <c r="O12">
-        <v>36.14844865512951</v>
+        <v>23.30463903254842</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1.888320830570227</v>
+        <v>2.207409669198068</v>
       </c>
       <c r="D13">
-        <v>2.783835253595187</v>
+        <v>2.899890048953178</v>
       </c>
       <c r="E13">
-        <v>42.31391537123734</v>
+        <v>21.35242109623703</v>
       </c>
       <c r="F13">
-        <v>45.13515145254586</v>
+        <v>27.89552529305429</v>
       </c>
       <c r="G13">
-        <v>1.92651093838214</v>
+        <v>3.551157010091716</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>33.36797299642981</v>
+        <v>21.74457326096319</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>31.67947945617568</v>
+        <v>21.78864458690801</v>
       </c>
       <c r="O13">
-        <v>36.03477017946505</v>
+        <v>23.27318221303199</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1.875649786572512</v>
+        <v>2.205906497270679</v>
       </c>
       <c r="D14">
-        <v>2.758878730342244</v>
+        <v>2.901549376282606</v>
       </c>
       <c r="E14">
-        <v>41.84493701685411</v>
+        <v>21.16421342581512</v>
       </c>
       <c r="F14">
-        <v>44.67306407901284</v>
+        <v>27.75027818211127</v>
       </c>
       <c r="G14">
-        <v>1.928806980890014</v>
+        <v>3.551812375130608</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>33.02511186561147</v>
+        <v>21.65166624362908</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>31.43851144188476</v>
+        <v>21.67368539489659</v>
       </c>
       <c r="O14">
-        <v>35.66317918426415</v>
+        <v>23.17047139746499</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1.867904249133018</v>
+        <v>2.204991888575577</v>
       </c>
       <c r="D15">
-        <v>2.743646221452142</v>
+        <v>2.902576045441832</v>
       </c>
       <c r="E15">
-        <v>41.5574477283611</v>
+        <v>21.04814619265927</v>
       </c>
       <c r="F15">
-        <v>44.38917304826697</v>
+        <v>27.66108993610336</v>
       </c>
       <c r="G15">
-        <v>1.93021145215258</v>
+        <v>3.552216007939526</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>32.8144543503803</v>
+        <v>21.59468585420258</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>31.28998244549471</v>
+        <v>21.60297336126124</v>
       </c>
       <c r="O15">
-        <v>35.43489233826072</v>
+        <v>23.1074659743189</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1.823731488641201</v>
+        <v>2.199845268635152</v>
       </c>
       <c r="D16">
-        <v>2.657080396358239</v>
+        <v>2.908616564002029</v>
       </c>
       <c r="E16">
-        <v>39.90510733979904</v>
+        <v>20.37095809521568</v>
       </c>
       <c r="F16">
-        <v>42.74859453506407</v>
+        <v>27.14676622563257</v>
       </c>
       <c r="G16">
-        <v>1.938236957362294</v>
+        <v>3.55456291510376</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>31.59683445607251</v>
+        <v>21.26714985075624</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>30.424642833461</v>
+        <v>21.19330956972086</v>
       </c>
       <c r="O16">
-        <v>34.1157055599911</v>
+        <v>22.74510765813716</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1.796795864687204</v>
+        <v>2.196773189785098</v>
       </c>
       <c r="D17">
-        <v>2.6045189729519</v>
+        <v>2.912461845258352</v>
       </c>
       <c r="E17">
-        <v>38.88572287650462</v>
+        <v>19.94473900356374</v>
       </c>
       <c r="F17">
-        <v>41.72920756280248</v>
+        <v>26.82854251495638</v>
       </c>
       <c r="G17">
-        <v>1.943146463650444</v>
+        <v>3.556032967714352</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>30.84001227534053</v>
+        <v>21.06543382608167</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>29.88120505119274</v>
+        <v>20.93814219015166</v>
       </c>
       <c r="O17">
-        <v>33.29603471178545</v>
+        <v>22.52177723928153</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1.781353462906054</v>
+        <v>2.195037820809328</v>
       </c>
       <c r="D18">
-        <v>2.574449245576098</v>
+        <v>2.914724641524562</v>
       </c>
       <c r="E18">
-        <v>38.29678332875975</v>
+        <v>19.69561312536645</v>
       </c>
       <c r="F18">
-        <v>41.13786450955133</v>
+        <v>26.64458609276432</v>
       </c>
       <c r="G18">
-        <v>1.945967623557026</v>
+        <v>3.556889676510139</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>30.40088460386863</v>
+        <v>20.9491700753218</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>29.56404287680425</v>
+        <v>20.79000725568362</v>
       </c>
       <c r="O18">
-        <v>32.82053801467183</v>
+        <v>22.39299357549152</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1.776132770408858</v>
+        <v>2.194455711243231</v>
       </c>
       <c r="D19">
-        <v>2.564292725646599</v>
+        <v>2.915499540320131</v>
       </c>
       <c r="E19">
-        <v>38.09688402867003</v>
+        <v>19.61057936871486</v>
       </c>
       <c r="F19">
-        <v>40.93676084684335</v>
+        <v>26.58215009205571</v>
       </c>
       <c r="G19">
-        <v>1.946922580246123</v>
+        <v>3.557181666023975</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>30.25152876477405</v>
+        <v>20.90976804047995</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>29.45587200880245</v>
+        <v>20.73962067985785</v>
       </c>
       <c r="O19">
-        <v>32.65882855888049</v>
+        <v>22.34933788662787</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1.799657811011919</v>
+        <v>2.197096952948375</v>
       </c>
       <c r="D20">
-        <v>2.610096639414233</v>
+        <v>2.912047215823479</v>
       </c>
       <c r="E20">
-        <v>38.99449797505225</v>
+        <v>19.99052197472236</v>
       </c>
       <c r="F20">
-        <v>41.83823686096138</v>
+        <v>26.86251508760304</v>
       </c>
       <c r="G20">
-        <v>1.942624165897261</v>
+        <v>3.555875322552067</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>30.92096864997869</v>
+        <v>21.08693294040393</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>29.93953086719064</v>
+        <v>20.96544799483449</v>
       </c>
       <c r="O20">
-        <v>33.38370376114052</v>
+        <v>22.54558644856834</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1.8793682028073</v>
+        <v>2.206346740067187</v>
       </c>
       <c r="D21">
-        <v>2.766197535147504</v>
+        <v>2.901059847334219</v>
       </c>
       <c r="E21">
-        <v>41.98273105990079</v>
+        <v>21.21965802419746</v>
       </c>
       <c r="F21">
-        <v>44.80896556426038</v>
+        <v>27.79298702712013</v>
       </c>
       <c r="G21">
-        <v>1.928132994100154</v>
+        <v>3.551619419681133</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>33.12595160289654</v>
+        <v>21.67897056426095</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>31.50948335633596</v>
+        <v>21.70751365554064</v>
       </c>
       <c r="O21">
-        <v>35.77246398943171</v>
+        <v>23.2006595070544</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1.932145100572034</v>
+        <v>2.212667072012168</v>
       </c>
       <c r="D22">
-        <v>2.870533811328274</v>
+        <v>2.894338630682314</v>
       </c>
       <c r="E22">
-        <v>43.92415313644504</v>
+        <v>21.9878201978674</v>
       </c>
       <c r="F22">
-        <v>46.71177473722913</v>
+        <v>28.39143486394593</v>
       </c>
       <c r="G22">
-        <v>1.918582969397071</v>
+        <v>3.548936635058988</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>34.53759581181276</v>
+        <v>22.06279337296474</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>32.49403281050594</v>
+        <v>22.17935961385674</v>
       </c>
       <c r="O22">
-        <v>37.30274940311482</v>
+        <v>23.62480026203102</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1.903900774151989</v>
+        <v>2.209268943688253</v>
       </c>
       <c r="D23">
-        <v>2.814587345810981</v>
+        <v>2.897883577502701</v>
       </c>
       <c r="E23">
-        <v>42.88839239131939</v>
+        <v>21.58104139471089</v>
       </c>
       <c r="F23">
-        <v>45.69943000408977</v>
+        <v>28.07298321618894</v>
       </c>
       <c r="G23">
-        <v>1.92369025339527</v>
+        <v>3.550359496084504</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>33.78661943694395</v>
+        <v>21.85826868709075</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>31.97238356075506</v>
+        <v>21.92877110911181</v>
       </c>
       <c r="O23">
-        <v>36.48855921768393</v>
+        <v>23.39884195881073</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1.798363792628935</v>
+        <v>2.196950483585789</v>
       </c>
       <c r="D24">
-        <v>2.607574522604378</v>
+        <v>2.912234507584127</v>
       </c>
       <c r="E24">
-        <v>38.94532984956295</v>
+        <v>19.96983622591278</v>
       </c>
       <c r="F24">
-        <v>41.78896123490117</v>
+        <v>26.847159202354</v>
       </c>
       <c r="G24">
-        <v>1.942860300437644</v>
+        <v>3.555946557926736</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>30.88438084377637</v>
+        <v>21.07721409737911</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>29.91317649911919</v>
+        <v>20.95310750188673</v>
       </c>
       <c r="O24">
-        <v>33.34408189635118</v>
+        <v>22.53482350175631</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1.686407551424167</v>
+        <v>2.184874773439685</v>
       </c>
       <c r="D25">
-        <v>2.390199851537523</v>
+        <v>2.929665206824904</v>
       </c>
       <c r="E25">
-        <v>34.58795469758239</v>
+        <v>18.07972582065038</v>
       </c>
       <c r="F25">
-        <v>37.37686830819427</v>
+        <v>25.49069301138027</v>
       </c>
       <c r="G25">
-        <v>1.963457435156281</v>
+        <v>3.562400784297295</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>27.60592657428312</v>
+        <v>20.22611050585468</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>27.51708508088412</v>
+        <v>19.84905939529497</v>
       </c>
       <c r="O25">
-        <v>29.79575202850834</v>
+        <v>21.59094305220897</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_223/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_223/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.177054233802296</v>
+        <v>1.604881059322728</v>
       </c>
       <c r="D2">
-        <v>2.94415561582861</v>
+        <v>2.231851092102775</v>
       </c>
       <c r="E2">
-        <v>16.66802848903046</v>
+        <v>31.2421734796227</v>
       </c>
       <c r="F2">
-        <v>24.47134540445481</v>
+        <v>33.93664512644629</v>
       </c>
       <c r="G2">
-        <v>3.567526063762902</v>
+        <v>1.978787400582411</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>19.59752123846195</v>
+        <v>25.0451772777904</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.99769123883711</v>
+        <v>25.60720851682377</v>
       </c>
       <c r="O2">
-        <v>20.89182271100775</v>
+        <v>27.02694596348235</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.172435147857365</v>
+        <v>1.550045393349217</v>
       </c>
       <c r="D3">
-        <v>2.95499900982323</v>
+        <v>2.124375878529035</v>
       </c>
       <c r="E3">
-        <v>15.70626053483035</v>
+        <v>28.87033717357187</v>
       </c>
       <c r="F3">
-        <v>23.77279097030611</v>
+        <v>31.47630387485416</v>
       </c>
       <c r="G3">
-        <v>3.571234858654964</v>
+        <v>1.989372520803171</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.17331663189001</v>
+        <v>23.21037613844269</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40031508502701</v>
+        <v>24.22561817997341</v>
       </c>
       <c r="O3">
-        <v>20.41879351793042</v>
+        <v>25.04460434424398</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.1699388767347</v>
+        <v>1.516576709119588</v>
       </c>
       <c r="D4">
-        <v>2.962158412889302</v>
+        <v>2.05800331295127</v>
       </c>
       <c r="E4">
-        <v>15.09050342618864</v>
+        <v>27.357448188732</v>
       </c>
       <c r="F4">
-        <v>23.34195226825164</v>
+        <v>29.89974647350224</v>
       </c>
       <c r="G4">
-        <v>3.573629020972537</v>
+        <v>1.995994365837005</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.91479532521317</v>
+        <v>22.03269537528129</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.02485520896362</v>
+        <v>23.33595077662918</v>
       </c>
       <c r="O4">
-        <v>20.12992364643306</v>
+        <v>23.77294354068071</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.169007673701893</v>
+        <v>1.502991807847023</v>
       </c>
       <c r="D5">
-        <v>2.965201582666245</v>
+        <v>2.030823845646062</v>
       </c>
       <c r="E5">
-        <v>14.8334996344148</v>
+        <v>26.72604132247014</v>
       </c>
       <c r="F5">
-        <v>23.16620146761137</v>
+        <v>29.24045126131536</v>
       </c>
       <c r="G5">
-        <v>3.574634190340252</v>
+        <v>1.998727053925478</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>18.81009776041359</v>
+        <v>21.5396655364062</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.86990355188765</v>
+        <v>22.96331756195407</v>
       </c>
       <c r="O5">
-        <v>20.01278767864523</v>
+        <v>23.24074678007132</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.168858261243953</v>
+        <v>1.500739455073024</v>
       </c>
       <c r="D6">
-        <v>2.965714475022706</v>
+        <v>2.026301824095349</v>
       </c>
       <c r="E6">
-        <v>14.79046609958031</v>
+        <v>26.62027903914446</v>
       </c>
       <c r="F6">
-        <v>23.13701640717197</v>
+        <v>29.1299526555852</v>
       </c>
       <c r="G6">
-        <v>3.574802884975969</v>
+        <v>1.999182975905623</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.79275700330097</v>
+        <v>21.45699919430976</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.84406337566597</v>
+        <v>22.90084339962192</v>
       </c>
       <c r="O6">
-        <v>19.99337790370629</v>
+        <v>23.15152393411639</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.16992596903508</v>
+        <v>1.51639327361536</v>
       </c>
       <c r="D7">
-        <v>2.96219894600785</v>
+        <v>2.057637338274953</v>
       </c>
       <c r="E7">
-        <v>15.08706160069387</v>
+        <v>27.34899394515713</v>
       </c>
       <c r="F7">
-        <v>23.33958235184754</v>
+        <v>29.89092345042309</v>
       </c>
       <c r="G7">
-        <v>3.573642457318429</v>
+        <v>1.996031076940652</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.91338048007347</v>
+        <v>22.02609962746218</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.02277304767603</v>
+        <v>23.33096569062625</v>
       </c>
       <c r="O7">
-        <v>20.12834131072626</v>
+        <v>23.76582311124394</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.175391400923772</v>
+        <v>1.585933098646232</v>
       </c>
       <c r="D8">
-        <v>2.947790048412414</v>
+        <v>2.194848933027299</v>
       </c>
       <c r="E8">
-        <v>16.34179060929392</v>
+        <v>30.43568125447069</v>
       </c>
       <c r="F8">
-        <v>24.23106040309856</v>
+        <v>33.10181438016055</v>
       </c>
       <c r="G8">
-        <v>3.568780657121915</v>
+        <v>1.982413886964299</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.45094988731143</v>
+        <v>24.42297292766786</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.79364780656867</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
-        <v>20.72850622303068</v>
+        <v>26.35456083120605</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.188778008507189</v>
+        <v>1.723946472477161</v>
       </c>
       <c r="D9">
-        <v>2.923534966248327</v>
+        <v>2.462965688450684</v>
       </c>
       <c r="E9">
-        <v>18.73688618351982</v>
+        <v>36.07429109778034</v>
       </c>
       <c r="F9">
-        <v>25.95145186653697</v>
+        <v>38.89141066579482</v>
       </c>
       <c r="G9">
-        <v>3.56016906549611</v>
+        <v>1.956507627151927</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20.51348828274695</v>
+        <v>28.73192374578115</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.2273683202997</v>
+        <v>28.34722074380646</v>
       </c>
       <c r="O9">
-        <v>21.90996168125022</v>
+        <v>31.01399700260223</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.200200076093394</v>
+        <v>1.826812495605563</v>
       </c>
       <c r="D10">
-        <v>2.908184729423248</v>
+        <v>2.663102629872528</v>
       </c>
       <c r="E10">
-        <v>20.4190547827733</v>
+        <v>40.02110751215041</v>
       </c>
       <c r="F10">
-        <v>27.18294755802058</v>
+        <v>42.86425199072829</v>
       </c>
       <c r="G10">
-        <v>3.554396683160884</v>
+        <v>1.937676216505583</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>21.29013090498111</v>
+        <v>31.6826893169147</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.22223697909767</v>
+        <v>30.48602834203865</v>
       </c>
       <c r="O10">
-        <v>22.77054280716412</v>
+        <v>34.2087035623694</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2.205731232051607</v>
+        <v>1.874167688813398</v>
       </c>
       <c r="D11">
-        <v>2.901745097343441</v>
+        <v>2.755962690386829</v>
       </c>
       <c r="E11">
-        <v>21.14206437904654</v>
+        <v>41.78997489797435</v>
       </c>
       <c r="F11">
-        <v>27.73323559559251</v>
+        <v>44.61882639419558</v>
       </c>
       <c r="G11">
-        <v>3.551889431349226</v>
+        <v>1.929075667136309</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>21.64077404586619</v>
+        <v>32.98486643156194</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.66018057919901</v>
+        <v>31.41016321374474</v>
       </c>
       <c r="O11">
-        <v>23.15842820242483</v>
+        <v>35.61956439884534</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2.207873030907942</v>
+        <v>1.892212832687366</v>
       </c>
       <c r="D12">
-        <v>2.89938535145791</v>
+        <v>2.791510416218316</v>
       </c>
       <c r="E12">
-        <v>21.40981913813115</v>
+        <v>42.45764384921086</v>
       </c>
       <c r="F12">
-        <v>27.93997367935093</v>
+        <v>45.2765113902982</v>
       </c>
       <c r="G12">
-        <v>3.5509569310822</v>
+        <v>1.92580606110745</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>21.77303194831448</v>
+        <v>33.47285387846208</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.82377585682186</v>
+        <v>31.75299711977163</v>
       </c>
       <c r="O12">
-        <v>23.30463903254842</v>
+        <v>36.14844865512953</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2.207409669198068</v>
+        <v>1.888320830570316</v>
       </c>
       <c r="D13">
-        <v>2.899890048953178</v>
+        <v>2.783835253595053</v>
       </c>
       <c r="E13">
-        <v>21.35242109623703</v>
+        <v>42.31391537123737</v>
       </c>
       <c r="F13">
-        <v>27.89552529305429</v>
+        <v>45.13515145254602</v>
       </c>
       <c r="G13">
-        <v>3.551157010091716</v>
+        <v>1.92651093838201</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>21.74457326096319</v>
+        <v>33.36797299642991</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.78864458690801</v>
+        <v>31.67947945617571</v>
       </c>
       <c r="O13">
-        <v>23.27318221303199</v>
+        <v>36.03477017946513</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2.205906497270679</v>
+        <v>1.875649786572764</v>
       </c>
       <c r="D14">
-        <v>2.901549376282606</v>
+        <v>2.758878730341992</v>
       </c>
       <c r="E14">
-        <v>21.16421342581512</v>
+        <v>41.84493701685415</v>
       </c>
       <c r="F14">
-        <v>27.75027818211127</v>
+        <v>44.67306407901287</v>
       </c>
       <c r="G14">
-        <v>3.551812375130608</v>
+        <v>1.928806980889881</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>21.65166624362908</v>
+        <v>33.02511186561139</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.67368539489659</v>
+        <v>31.43851144188478</v>
       </c>
       <c r="O14">
-        <v>23.17047139746499</v>
+        <v>35.66317918426411</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2.204991888575577</v>
+        <v>1.867904249132956</v>
       </c>
       <c r="D15">
-        <v>2.902576045441832</v>
+        <v>2.743646221452201</v>
       </c>
       <c r="E15">
-        <v>21.04814619265927</v>
+        <v>41.55744772836111</v>
       </c>
       <c r="F15">
-        <v>27.66108993610336</v>
+        <v>44.38917304826683</v>
       </c>
       <c r="G15">
-        <v>3.552216007939526</v>
+        <v>1.930211452152852</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>21.59468585420258</v>
+        <v>32.81445435038022</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.60297336126124</v>
+        <v>31.28998244549474</v>
       </c>
       <c r="O15">
-        <v>23.1074659743189</v>
+        <v>35.43489233826061</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2.199845268635152</v>
+        <v>1.823731488641201</v>
       </c>
       <c r="D16">
-        <v>2.908616564002029</v>
+        <v>2.657080396358187</v>
       </c>
       <c r="E16">
-        <v>20.37095809521568</v>
+        <v>39.90510733979904</v>
       </c>
       <c r="F16">
-        <v>27.14676622563257</v>
+        <v>42.74859453506404</v>
       </c>
       <c r="G16">
-        <v>3.55456291510376</v>
+        <v>1.938236957362289</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>21.26714985075624</v>
+        <v>31.5968344560725</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.19330956972086</v>
+        <v>30.424642833461</v>
       </c>
       <c r="O16">
-        <v>22.74510765813716</v>
+        <v>34.11570555999108</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.196773189785098</v>
+        <v>1.796795864687374</v>
       </c>
       <c r="D17">
-        <v>2.912461845258352</v>
+        <v>2.604518972952084</v>
       </c>
       <c r="E17">
-        <v>19.94473900356374</v>
+        <v>38.88572287650462</v>
       </c>
       <c r="F17">
-        <v>26.82854251495638</v>
+        <v>41.72920756280246</v>
       </c>
       <c r="G17">
-        <v>3.556032967714352</v>
+        <v>1.943146463650313</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>21.06543382608167</v>
+        <v>30.84001227534053</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.93814219015166</v>
+        <v>29.88120505119275</v>
       </c>
       <c r="O17">
-        <v>22.52177723928153</v>
+        <v>33.29603471178547</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.195037820809328</v>
+        <v>1.781353462906119</v>
       </c>
       <c r="D18">
-        <v>2.914724641524562</v>
+        <v>2.574449245576098</v>
       </c>
       <c r="E18">
-        <v>19.69561312536645</v>
+        <v>38.29678332875964</v>
       </c>
       <c r="F18">
-        <v>26.64458609276432</v>
+        <v>41.13786450955125</v>
       </c>
       <c r="G18">
-        <v>3.556889676510139</v>
+        <v>1.94596762355716</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.9491700753218</v>
+        <v>30.40088460386856</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.79000725568362</v>
+        <v>29.56404287680427</v>
       </c>
       <c r="O18">
-        <v>22.39299357549152</v>
+        <v>32.82053801467175</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.194455711243231</v>
+        <v>1.776132770408673</v>
       </c>
       <c r="D19">
-        <v>2.915499540320131</v>
+        <v>2.564292725646599</v>
       </c>
       <c r="E19">
-        <v>19.61057936871486</v>
+        <v>38.09688402867005</v>
       </c>
       <c r="F19">
-        <v>26.58215009205571</v>
+        <v>40.93676084684336</v>
       </c>
       <c r="G19">
-        <v>3.557181666023975</v>
+        <v>1.946922580246385</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.90976804047995</v>
+        <v>30.25152876477406</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.73962067985785</v>
+        <v>29.45587200880245</v>
       </c>
       <c r="O19">
-        <v>22.34933788662787</v>
+        <v>32.65882855888049</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.197096952948375</v>
+        <v>1.799657811011919</v>
       </c>
       <c r="D20">
-        <v>2.912047215823479</v>
+        <v>2.6100966394143</v>
       </c>
       <c r="E20">
-        <v>19.99052197472236</v>
+        <v>38.99449797505219</v>
       </c>
       <c r="F20">
-        <v>26.86251508760304</v>
+        <v>41.83823686096142</v>
       </c>
       <c r="G20">
-        <v>3.555875322552067</v>
+        <v>1.942624165897128</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>21.08693294040393</v>
+        <v>30.92096864997874</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.96544799483449</v>
+        <v>29.93953086719064</v>
       </c>
       <c r="O20">
-        <v>22.54558644856834</v>
+        <v>33.38370376114057</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2.206346740067187</v>
+        <v>1.879368202807389</v>
       </c>
       <c r="D21">
-        <v>2.901059847334219</v>
+        <v>2.766197535147324</v>
       </c>
       <c r="E21">
-        <v>21.21965802419746</v>
+        <v>41.98273105990084</v>
       </c>
       <c r="F21">
-        <v>27.79298702712013</v>
+        <v>44.80896556426037</v>
       </c>
       <c r="G21">
-        <v>3.551619419681133</v>
+        <v>1.928132994100024</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>21.67897056426095</v>
+        <v>33.12595160289652</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.70751365554064</v>
+        <v>31.50948335633596</v>
       </c>
       <c r="O21">
-        <v>23.2006595070544</v>
+        <v>35.77246398943169</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>2.212667072012168</v>
+        <v>1.932145100572135</v>
       </c>
       <c r="D22">
-        <v>2.894338630682314</v>
+        <v>2.870533811328211</v>
       </c>
       <c r="E22">
-        <v>21.9878201978674</v>
+        <v>43.924153136445</v>
       </c>
       <c r="F22">
-        <v>28.39143486394593</v>
+        <v>46.71177473722899</v>
       </c>
       <c r="G22">
-        <v>3.548936635058988</v>
+        <v>1.918582969397068</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>22.06279337296474</v>
+        <v>34.53759581181264</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.17935961385674</v>
+        <v>32.49403281050592</v>
       </c>
       <c r="O22">
-        <v>23.62480026203102</v>
+        <v>37.30274940311469</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>2.209268943688253</v>
+        <v>1.90390077415193</v>
       </c>
       <c r="D23">
-        <v>2.897883577502701</v>
+        <v>2.814587345810921</v>
       </c>
       <c r="E23">
-        <v>21.58104139471089</v>
+        <v>42.88839239131945</v>
       </c>
       <c r="F23">
-        <v>28.07298321618894</v>
+        <v>45.69943000408972</v>
       </c>
       <c r="G23">
-        <v>3.550359496084504</v>
+        <v>1.923690253395141</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>21.85826868709075</v>
+        <v>33.78661943694394</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.92877110911181</v>
+        <v>31.97238356075506</v>
       </c>
       <c r="O23">
-        <v>23.39884195881073</v>
+        <v>36.48855921768389</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.196950483585789</v>
+        <v>1.798363792628999</v>
       </c>
       <c r="D24">
-        <v>2.912234507584127</v>
+        <v>2.607574522604198</v>
       </c>
       <c r="E24">
-        <v>19.96983622591278</v>
+        <v>38.94532984956298</v>
       </c>
       <c r="F24">
-        <v>26.847159202354</v>
+        <v>41.7889612349011</v>
       </c>
       <c r="G24">
-        <v>3.555946557926736</v>
+        <v>1.94286030043764</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>21.07721409737911</v>
+        <v>30.8843808437763</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.95310750188673</v>
+        <v>29.91317649911917</v>
       </c>
       <c r="O24">
-        <v>22.53482350175631</v>
+        <v>33.3440818963511</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.184874773439685</v>
+        <v>1.686407551424237</v>
       </c>
       <c r="D25">
-        <v>2.929665206824904</v>
+        <v>2.390199851537342</v>
       </c>
       <c r="E25">
-        <v>18.07972582065038</v>
+        <v>34.58795469758236</v>
       </c>
       <c r="F25">
-        <v>25.49069301138027</v>
+        <v>37.37686830819433</v>
       </c>
       <c r="G25">
-        <v>3.562400784297295</v>
+        <v>1.963457435156548</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>20.22611050585468</v>
+        <v>27.60592657428317</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.84905939529497</v>
+        <v>27.51708508088411</v>
       </c>
       <c r="O25">
-        <v>21.59094305220897</v>
+        <v>29.7957520285084</v>
       </c>
     </row>
   </sheetData>
